--- a/users.xlsx
+++ b/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>785c2ef1ac31ef319ec0f179f046b69b</t>
+  </si>
+  <si>
+    <t>tryr</t>
+  </si>
+  <si>
+    <t>rrrrr</t>
+  </si>
+  <si>
+    <t>5aefe2369578ee68fc3f69a692fceba2</t>
   </si>
 </sst>
 </file>
@@ -83,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -131,6 +140,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -48,6 +48,51 @@
   </si>
   <si>
     <t>5aefe2369578ee68fc3f69a692fceba2</t>
+  </si>
+  <si>
+    <t>rrrt</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>b992bf6481fd17ca60db1b918a6d0f7e</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>88ed3a8fc730cafb4bd6c7450a4721bf</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>wer</t>
+  </si>
+  <si>
+    <t>75775da8ffebfd189ecdbb508a1c3e53</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>91712fd24f17fc06063088390bbe2980</t>
+  </si>
+  <si>
+    <t>qwer</t>
+  </si>
+  <si>
+    <t>c1e3b26e25e80ce3176d30b8a8b51780</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>qe</t>
+  </si>
+  <si>
+    <t>3870b68eedac82b57121625eaf15d8c1</t>
   </si>
 </sst>
 </file>
@@ -92,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -154,6 +199,90 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -26,80 +26,76 @@
     <t>Password</t>
   </si>
   <si>
+    <t>CreatedUser</t>
+  </si>
+  <si>
+    <t>CreatedDate</t>
+  </si>
+  <si>
+    <t>UpdateUser</t>
+  </si>
+  <si>
+    <t>UpdateDate</t>
+  </si>
+  <si>
     <t>eqq</t>
   </si>
   <si>
     <t>rwer</t>
   </si>
   <si>
-    <t>15ec4b1f96a217c7197b4602ec0d9847</t>
-  </si>
-  <si>
     <t>qwe</t>
   </si>
   <si>
-    <t>785c2ef1ac31ef319ec0f179f046b69b</t>
-  </si>
-  <si>
     <t>tryr</t>
   </si>
   <si>
     <t>rrrrr</t>
   </si>
   <si>
-    <t>5aefe2369578ee68fc3f69a692fceba2</t>
-  </si>
-  <si>
     <t>rrrt</t>
   </si>
   <si>
     <t>sad</t>
   </si>
   <si>
-    <t>b992bf6481fd17ca60db1b918a6d0f7e</t>
-  </si>
-  <si>
     <t>eeee</t>
   </si>
   <si>
-    <t>88ed3a8fc730cafb4bd6c7450a4721bf</t>
-  </si>
-  <si>
     <t>yyy</t>
   </si>
   <si>
     <t>wer</t>
   </si>
   <si>
-    <t>75775da8ffebfd189ecdbb508a1c3e53</t>
-  </si>
-  <si>
     <t>nb</t>
   </si>
   <si>
-    <t>91712fd24f17fc06063088390bbe2980</t>
-  </si>
-  <si>
     <t>qwer</t>
   </si>
   <si>
-    <t>c1e3b26e25e80ce3176d30b8a8b51780</t>
-  </si>
-  <si>
     <t>eq</t>
   </si>
   <si>
     <t>qe</t>
   </si>
   <si>
-    <t>3870b68eedac82b57121625eaf15d8c1</t>
+    <t>qweq</t>
+  </si>
+  <si>
+    <t>weq</t>
+  </si>
+  <si>
+    <t>555555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -129,15 +125,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -156,62 +153,90 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="1"/>
+      <c r="G2"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="1"/>
+      <c r="G3"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4"/>
+      <c r="F4" s="1"/>
+      <c r="G4"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E5"/>
+      <c r="F5" s="1"/>
+      <c r="G5"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -221,67 +246,123 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" s="1"/>
+      <c r="G6"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" s="1"/>
+      <c r="G7"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
+      <c r="E8"/>
+      <c r="F8" s="1"/>
+      <c r="G8"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" s="1"/>
+      <c r="G9"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" s="1"/>
+      <c r="G10"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" s="1"/>
+      <c r="G11"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="1"/>
+      <c r="G12"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
